--- a/haunting_mars/stats_madison.xlsx
+++ b/haunting_mars/stats_madison.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CCCB0E-6A88-7D4F-98F0-71E0F605A7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="1" r:id="rId1"/>
     <sheet name="OUTPUT" sheetId="2" r:id="rId2"/>
     <sheet name="SkillFormulas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -95,9 +112,6 @@
     <t>Inexperienced criminal / resistance operative</t>
   </si>
   <si>
-    <t>Hydroponics engineer; born 2108, Hellas Plaintia, Mars</t>
-  </si>
-  <si>
     <t>Engineer: Hydroponics / TL 9</t>
   </si>
   <si>
@@ -171,12 +185,15 @@
   </si>
   <si>
     <t>Mathematics (Applied)</t>
+  </si>
+  <si>
+    <t>Hydroponics engineer; born 2108, Durango, Hellas Plaintia, Mars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -199,6 +216,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,12 +240,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,17 +432,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -594,6 +612,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -918,14 +944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" customWidth="1"/>
@@ -934,7 +960,7 @@
     <col min="6" max="8" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -943,10 +969,10 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,10 +991,8 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="20">
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -999,9 +1023,9 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1009,7 +1033,7 @@
       <c r="D4">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
@@ -1024,15 +1048,15 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="E5"/>
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="H5">
@@ -1041,7 +1065,7 @@
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <f>(D3+H3)/4+L5</f>
         <v>6</v>
       </c>
@@ -1049,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,43 +1081,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="77" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="8" t="s">
+    <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="41" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="11" spans="1:14">
+    <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1113,9 +1137,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1135,9 +1159,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1154,9 +1178,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1173,9 +1197,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1192,9 +1216,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1211,9 +1235,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -1230,9 +1254,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1249,9 +1273,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1268,9 +1292,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1287,9 +1311,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1306,9 +1330,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -1325,9 +1349,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1344,9 +1368,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -1363,7 +1387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1382,7 +1406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1401,9 +1425,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -1420,9 +1444,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1439,9 +1463,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -1458,9 +1482,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -1477,9 +1501,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1496,9 +1520,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -1515,9 +1539,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -1534,9 +1558,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -1556,9 +1580,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1578,7 +1602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E36" s="1" t="e">
         <f t="shared" ref="E36:E41" si="4">H36+C36+D36</f>
         <v>#N/A</v>
@@ -1588,7 +1612,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1598,7 +1622,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1608,7 +1632,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1618,7 +1642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1628,7 +1652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E41" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1655,103 +1679,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
         <f>F!A1</f>
         <v>Madison Bell</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!J1</f>
-        <v>Hydroponics engineer; born 2108, Hellas Plaintia, Mars</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>Hydroponics engineer; born 2108, Durango, Hellas Plaintia, Mars</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "</f>
         <v xml:space="preserve">VACUUM POD: </v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
         <v>ST 10 DX 12 IQ 10 WILL 11 PER 10 HT 12</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>"Speed "&amp;F!K5</f>
         <v>Speed 6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
         <v>Flexible, Basic Biomods, Mesh Inserts, Cyberbrain, DR 2, Enhanced Respiration, Grip Pads, Mnemonic Augmentation, Oxygen Reserve, Prehensile Feet, Puppet Sock, Social Stigma: Pod, Cortical Stack</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>SkillFormulas!E22&amp;SkillFormulas!F22&amp;SkillFormulas!G22&amp;SkillFormulas!H22&amp;SkillFormulas!I22&amp;SkillFormulas!J22</f>
         <v>Coordination Aptitude 1, Willpower Aptitude 1, Endurance Aptitude 1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A9</f>
         <v>Engineering Talent +2, Adaptability +2, Secret (Infiltrator), Sense of duty: Sister, Status -2 (bodiless)</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>SkillFormulas!G7</f>
         <v xml:space="preserve">English (N/N), </v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
         <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-10, Geology (Terraforming)-9, </v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
         <v xml:space="preserve">Mechanics/TL 9-12, Electronics Operation: Life Support-11, Savoir-Faire: Working Class-10, Body Sense-11, Streetwise-8, Pilot: Flying Car-12, </v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
         <v xml:space="preserve">Driving: Buggy-12, Computer Programming-11, Research-11, Vacc Suit-12, Carousing-12, Physics-10, </v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
         <v xml:space="preserve">Chemistry-11, Farming/TL9-11, Acting-10, Politics-9, Free Fall-12, Climbing-16, </v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>SkillFormulas!G5</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!J7</f>
         <v>Inexperienced criminal / resistance operative</v>
@@ -1769,19 +1793,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>F!A12&amp;"-"&amp;F!E12&amp;", "</f>
         <v xml:space="preserve">Mathematics (Applied)-9, </v>
@@ -1803,7 +1827,7 @@
         <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-10, Geology (Terraforming)-9, </v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!A13&amp;"-"&amp;F!E13&amp;", "</f>
         <v xml:space="preserve">Engineer: Hydroponics / TL 9-13, </v>
@@ -1825,7 +1849,7 @@
         <v xml:space="preserve">Mechanics/TL 9-12, Electronics Operation: Life Support-11, Savoir-Faire: Working Class-10, Body Sense-11, Streetwise-8, Pilot: Flying Car-12, </v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
         <v xml:space="preserve">Electronics Repair: Life Support-13, </v>
@@ -1847,7 +1871,7 @@
         <v xml:space="preserve">Driving: Buggy-12, Computer Programming-11, Research-11, Vacc Suit-12, Carousing-12, Physics-10, </v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>F!A15&amp;"-"&amp;F!E15&amp;", "</f>
         <v xml:space="preserve">Biology-9, </v>
@@ -1869,7 +1893,7 @@
         <v xml:space="preserve">Chemistry-11, Farming/TL9-11, Acting-10, Politics-9, Free Fall-12, Climbing-16, </v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
         <v xml:space="preserve">Survival: Martian surface-10, </v>
@@ -1891,7 +1915,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A17&amp;"-"&amp;F!E17&amp;", "</f>
         <v xml:space="preserve">Geology (Terraforming)-9, </v>
@@ -1909,7 +1933,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>F!A18&amp;"-"&amp;F!E18&amp;", "</f>
         <v xml:space="preserve">Mechanics/TL 9-12, </v>
@@ -1931,7 +1955,7 @@
         <v xml:space="preserve">English (N/N), </v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A19&amp;"-"&amp;F!E19&amp;", "</f>
         <v xml:space="preserve">Electronics Operation: Life Support-11, </v>
@@ -1949,7 +1973,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>F!A20&amp;"-"&amp;F!E20&amp;", "</f>
         <v xml:space="preserve">Savoir-Faire: Working Class-10, </v>
@@ -1967,7 +1991,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
         <v xml:space="preserve">Body Sense-11, </v>
@@ -1977,7 +2001,7 @@
         <v xml:space="preserve">Body Sense-11, </v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>F!A22&amp;"-"&amp;F!E22&amp;", "</f>
         <v xml:space="preserve">Streetwise-8, </v>
@@ -1987,7 +2011,7 @@
         <v xml:space="preserve">Streetwise-8, </v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
         <v xml:space="preserve">Pilot: Flying Car-12, </v>
@@ -1997,7 +2021,7 @@
         <v xml:space="preserve">Pilot: Flying Car-12, </v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
         <v xml:space="preserve">Driving: Buggy-12, </v>
@@ -2007,7 +2031,7 @@
         <v xml:space="preserve">Driving: Buggy-12, </v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>F!A25&amp;"-"&amp;F!E25&amp;", "</f>
         <v xml:space="preserve">Computer Programming-11, </v>
@@ -2017,7 +2041,7 @@
         <v xml:space="preserve">Computer Programming-11, </v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!A26&amp;"-"&amp;F!E26&amp;", "</f>
         <v xml:space="preserve">Research-11, </v>
@@ -2027,7 +2051,7 @@
         <v xml:space="preserve">Research-11, </v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
         <v xml:space="preserve">Vacc Suit-12, </v>
@@ -2037,7 +2061,7 @@
         <v xml:space="preserve">Vacc Suit-12, </v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
         <v xml:space="preserve">Carousing-12, </v>
@@ -2047,7 +2071,7 @@
         <v xml:space="preserve">Carousing-12, </v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>F!A29&amp;"-"&amp;F!E29&amp;", "</f>
         <v xml:space="preserve">Physics-10, </v>
@@ -2057,7 +2081,7 @@
         <v xml:space="preserve">Physics-10, </v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
         <v xml:space="preserve">Chemistry-11, </v>
@@ -2067,7 +2091,7 @@
         <v xml:space="preserve">Chemistry-11, </v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>F!A31&amp;"-"&amp;F!E31&amp;", "</f>
         <v xml:space="preserve">Farming/TL9-11, </v>
@@ -2077,7 +2101,7 @@
         <v xml:space="preserve">Farming/TL9-11, </v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>F!A32&amp;"-"&amp;F!E32&amp;", "</f>
         <v xml:space="preserve">Acting-10, </v>
@@ -2087,7 +2111,7 @@
         <v xml:space="preserve">Acting-10, </v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>F!A33&amp;"-"&amp;F!E33&amp;", "</f>
         <v xml:space="preserve">Politics-9, </v>
@@ -2121,7 +2145,7 @@
         <v>Endurance Aptitude 1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>F!A34&amp;"-"&amp;F!E34&amp;", "</f>
         <v xml:space="preserve">Free Fall-12, </v>
@@ -2131,7 +2155,7 @@
         <v xml:space="preserve">Free Fall-12, </v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>F!A35&amp;"-"&amp;F!E35&amp;", "</f>
         <v xml:space="preserve">Climbing-16, </v>
@@ -2141,7 +2165,7 @@
         <v xml:space="preserve">Climbing-16, </v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="e">
         <f>F!A36&amp;"-"&amp;F!E36&amp;", "</f>
         <v>#N/A</v>
@@ -2151,7 +2175,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="e">
         <f>F!A37&amp;"-"&amp;F!E37&amp;", "</f>
         <v>#N/A</v>
@@ -2161,7 +2185,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="e">
         <f>F!A38&amp;"-"&amp;F!E38&amp;", "</f>
         <v>#N/A</v>
@@ -2171,7 +2195,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="e">
         <f>F!A39&amp;"-"&amp;F!E39&amp;", "</f>
         <v>#N/A</v>
@@ -2181,7 +2205,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="e">
         <f>F!A40&amp;"-"&amp;F!E40&amp;", "</f>
         <v>#N/A</v>
@@ -2191,7 +2215,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="e">
         <f>F!A41&amp;"-"&amp;F!E41&amp;", "</f>
         <v>#N/A</v>

--- a/haunting_mars/stats_madison.xlsx
+++ b/haunting_mars/stats_madison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CCCB0E-6A88-7D4F-98F0-71E0F605A7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA2078-45C9-B048-A104-517D41629FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>ST</t>
   </si>
@@ -172,12 +172,6 @@
     <t>Politics</t>
   </si>
   <si>
-    <t>Vacuum Pod</t>
-  </si>
-  <si>
-    <t>Flexible, Basic Biomods, Mesh Inserts, Cyberbrain, DR 2, Enhanced Respiration, Grip Pads, Mnemonic Augmentation, Oxygen Reserve, Prehensile Feet, Puppet Sock, Social Stigma: Pod, Cortical Stack</t>
-  </si>
-  <si>
     <t>Free Fall</t>
   </si>
   <si>
@@ -188,6 +182,21 @@
   </si>
   <si>
     <t>Hydroponics engineer; born 2108, Durango, Hellas Plaintia, Mars</t>
+  </si>
+  <si>
+    <t>Splicer</t>
+  </si>
+  <si>
+    <t>Dancing</t>
+  </si>
+  <si>
+    <t>LINE 2:</t>
+  </si>
+  <si>
+    <t>white skin, 190 cm, 77 kg</t>
+  </si>
+  <si>
+    <t>Basic Biomods, Mesh Inserts, Cortical Stack, Attractive</t>
   </si>
 </sst>
 </file>
@@ -432,7 +441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -444,6 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -947,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,7 +979,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -991,6 +1001,12 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -998,52 +1014,52 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1067,7 +1083,7 @@
       </c>
       <c r="K5">
         <f>(D3+H3)/4+L5</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1083,7 +1099,7 @@
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1139,7 +1155,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1149,11 +1165,11 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E35" si="1">H12+C12+D12</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <f>INDEX($C$3:$H$3,(MATCH($B12,$2:$2,0)-2))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
@@ -1171,11 +1187,11 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H29" si="2">INDEX($C$3:$H$3,(MATCH($B13,$2:$2,0)-2))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1190,11 +1206,11 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1209,11 +1225,11 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1228,11 +1244,11 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1247,11 +1263,11 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1266,11 +1282,11 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1285,11 +1301,11 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1304,11 +1320,11 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <f>INDEX($C$3:$H$3,(MATCH($B20,$2:$2,0)-2))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1323,11 +1339,11 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1342,11 +1358,11 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1361,11 +1377,11 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1380,11 +1396,11 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1399,11 +1415,11 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1418,11 +1434,11 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1437,11 +1453,11 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1456,11 +1472,11 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28">
         <f>INDEX($C$3:$H$3,(MATCH($B28,$2:$2,0)-2))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1475,11 +1491,11 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1494,11 +1510,11 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H41" si="3">INDEX($C$3:$H$3,(MATCH($B30,$2:$2,0)-2))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1513,11 +1529,11 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1532,11 +1548,11 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1551,16 +1567,16 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -1568,21 +1584,18 @@
       <c r="C34">
         <v>-2</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1590,26 +1603,32 @@
       <c r="C35">
         <v>-4</v>
       </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36:E41" si="4">H36+C36+D36</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E36" s="1" t="e">
-        <f t="shared" ref="E36:E41" si="4">H36+C36+D36</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H36" t="e">
+      <c r="H36">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1682,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1705,26 +1724,26 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>UPPER(F!A4)&amp;": "</f>
-        <v xml:space="preserve">VACUUM POD: </v>
+        <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
+        <v>SPLICER: white skin, 190 cm, 77 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 10 DX 12 IQ 10 WILL 11 PER 10 HT 12</v>
+        <v>ST 11 DX 13 IQ 11 WILL 12 PER 11 HT 13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>"Speed "&amp;F!K5</f>
-        <v>Speed 6</v>
+        <v>Speed 6,5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>Flexible, Basic Biomods, Mesh Inserts, Cyberbrain, DR 2, Enhanced Respiration, Grip Pads, Mnemonic Augmentation, Oxygen Reserve, Prehensile Feet, Puppet Sock, Social Stigma: Pod, Cortical Stack</v>
+        <v>Basic Biomods, Mesh Inserts, Cortical Stack, Attractive</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1748,31 +1767,31 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-10, Geology (Terraforming)-9, </v>
+        <v xml:space="preserve">Mathematics (Applied)-10, Engineer: Hydroponics / TL 9-14, Electronics Repair: Life Support-14, Biology-10, Survival: Martian surface-11, Geology (Terraforming)-10, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Mechanics/TL 9-12, Electronics Operation: Life Support-11, Savoir-Faire: Working Class-10, Body Sense-11, Streetwise-8, Pilot: Flying Car-12, </v>
+        <v xml:space="preserve">Mechanics/TL 9-13, Electronics Operation: Life Support-12, Savoir-Faire: Working Class-11, Body Sense-12, Streetwise-9, Pilot: Flying Car-13, </v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Driving: Buggy-12, Computer Programming-11, Research-11, Vacc Suit-12, Carousing-12, Physics-10, </v>
+        <v xml:space="preserve">Driving: Buggy-13, Computer Programming-12, Research-12, Vacc Suit-13, Carousing-13, Physics-11, </v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Chemistry-11, Farming/TL9-11, Acting-10, Politics-9, Free Fall-12, Climbing-16, </v>
+        <v xml:space="preserve">Chemistry-12, Farming/TL9-12, Acting-11, Politics-10, Free Fall-11, Climbing-9, </v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>SkillFormulas!G5</f>
-        <v/>
+        <v xml:space="preserve">Dancing-12, </v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -1808,11 +1827,11 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>F!A12&amp;"-"&amp;F!E12&amp;", "</f>
-        <v xml:space="preserve">Mathematics (Applied)-9, </v>
+        <v xml:space="preserve">Mathematics (Applied)-10, </v>
       </c>
       <c r="B1" t="str">
         <f t="shared" ref="B1:B15" si="0">IF(ISNUMBER(SEARCH("-",A1)),A1,"")</f>
-        <v xml:space="preserve">Mathematics (Applied)-9, </v>
+        <v xml:space="preserve">Mathematics (Applied)-10, </v>
       </c>
       <c r="D1" t="str">
         <f>F!J12&amp;", "</f>
@@ -1824,17 +1843,17 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-10, Geology (Terraforming)-9, </v>
+        <v xml:space="preserve">Mathematics (Applied)-10, Engineer: Hydroponics / TL 9-14, Electronics Repair: Life Support-14, Biology-10, Survival: Martian surface-11, Geology (Terraforming)-10, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!A13&amp;"-"&amp;F!E13&amp;", "</f>
-        <v xml:space="preserve">Engineer: Hydroponics / TL 9-13, </v>
+        <v xml:space="preserve">Engineer: Hydroponics / TL 9-14, </v>
       </c>
       <c r="B2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Engineer: Hydroponics / TL 9-13, </v>
+        <v xml:space="preserve">Engineer: Hydroponics / TL 9-14, </v>
       </c>
       <c r="D2" t="str">
         <f>F!J13&amp;", "</f>
@@ -1846,17 +1865,17 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Mechanics/TL 9-12, Electronics Operation: Life Support-11, Savoir-Faire: Working Class-10, Body Sense-11, Streetwise-8, Pilot: Flying Car-12, </v>
+        <v xml:space="preserve">Mechanics/TL 9-13, Electronics Operation: Life Support-12, Savoir-Faire: Working Class-11, Body Sense-12, Streetwise-9, Pilot: Flying Car-13, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Electronics Repair: Life Support-13, </v>
+        <v xml:space="preserve">Electronics Repair: Life Support-14, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Electronics Repair: Life Support-13, </v>
+        <v xml:space="preserve">Electronics Repair: Life Support-14, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1868,17 +1887,17 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Driving: Buggy-12, Computer Programming-11, Research-11, Vacc Suit-12, Carousing-12, Physics-10, </v>
+        <v xml:space="preserve">Driving: Buggy-13, Computer Programming-12, Research-12, Vacc Suit-13, Carousing-13, Physics-11, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>F!A15&amp;"-"&amp;F!E15&amp;", "</f>
-        <v xml:space="preserve">Biology-9, </v>
+        <v xml:space="preserve">Biology-10, </v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Biology-9, </v>
+        <v xml:space="preserve">Biology-10, </v>
       </c>
       <c r="D4" t="str">
         <f>F!J15&amp;", "</f>
@@ -1890,17 +1909,17 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Chemistry-11, Farming/TL9-11, Acting-10, Politics-9, Free Fall-12, Climbing-16, </v>
+        <v xml:space="preserve">Chemistry-12, Farming/TL9-12, Acting-11, Politics-10, Free Fall-11, Climbing-9, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
-        <v xml:space="preserve">Survival: Martian surface-10, </v>
+        <v xml:space="preserve">Survival: Martian surface-11, </v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Survival: Martian surface-10, </v>
+        <v xml:space="preserve">Survival: Martian surface-11, </v>
       </c>
       <c r="D5" t="str">
         <f>F!J16&amp;", "</f>
@@ -1912,17 +1931,17 @@
       </c>
       <c r="G5" t="str">
         <f>B25&amp;B26&amp;B27&amp;B28&amp;B29&amp;B30</f>
-        <v/>
+        <v xml:space="preserve">Dancing-12, </v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A17&amp;"-"&amp;F!E17&amp;", "</f>
-        <v xml:space="preserve">Geology (Terraforming)-9, </v>
+        <v xml:space="preserve">Geology (Terraforming)-10, </v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Geology (Terraforming)-9, </v>
+        <v xml:space="preserve">Geology (Terraforming)-10, </v>
       </c>
       <c r="D6" t="str">
         <f>F!J17&amp;", "</f>
@@ -1936,11 +1955,11 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>F!A18&amp;"-"&amp;F!E18&amp;", "</f>
-        <v xml:space="preserve">Mechanics/TL 9-12, </v>
+        <v xml:space="preserve">Mechanics/TL 9-13, </v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Mechanics/TL 9-12, </v>
+        <v xml:space="preserve">Mechanics/TL 9-13, </v>
       </c>
       <c r="D7" t="str">
         <f>F!J18&amp;", "</f>
@@ -1958,11 +1977,11 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A19&amp;"-"&amp;F!E19&amp;", "</f>
-        <v xml:space="preserve">Electronics Operation: Life Support-11, </v>
+        <v xml:space="preserve">Electronics Operation: Life Support-12, </v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Electronics Operation: Life Support-11, </v>
+        <v xml:space="preserve">Electronics Operation: Life Support-12, </v>
       </c>
       <c r="D8" t="str">
         <f>F!J19&amp;", "</f>
@@ -1976,11 +1995,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>F!A20&amp;"-"&amp;F!E20&amp;", "</f>
-        <v xml:space="preserve">Savoir-Faire: Working Class-10, </v>
+        <v xml:space="preserve">Savoir-Faire: Working Class-11, </v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Savoir-Faire: Working Class-10, </v>
+        <v xml:space="preserve">Savoir-Faire: Working Class-11, </v>
       </c>
       <c r="D9" t="str">
         <f>F!J20&amp;", "</f>
@@ -1994,131 +2013,131 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
-        <v xml:space="preserve">Body Sense-11, </v>
+        <v xml:space="preserve">Body Sense-12, </v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Body Sense-11, </v>
+        <v xml:space="preserve">Body Sense-12, </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>F!A22&amp;"-"&amp;F!E22&amp;", "</f>
-        <v xml:space="preserve">Streetwise-8, </v>
+        <v xml:space="preserve">Streetwise-9, </v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Streetwise-8, </v>
+        <v xml:space="preserve">Streetwise-9, </v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
-        <v xml:space="preserve">Pilot: Flying Car-12, </v>
+        <v xml:space="preserve">Pilot: Flying Car-13, </v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Pilot: Flying Car-12, </v>
+        <v xml:space="preserve">Pilot: Flying Car-13, </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
-        <v xml:space="preserve">Driving: Buggy-12, </v>
+        <v xml:space="preserve">Driving: Buggy-13, </v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Driving: Buggy-12, </v>
+        <v xml:space="preserve">Driving: Buggy-13, </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>F!A25&amp;"-"&amp;F!E25&amp;", "</f>
-        <v xml:space="preserve">Computer Programming-11, </v>
+        <v xml:space="preserve">Computer Programming-12, </v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Computer Programming-11, </v>
+        <v xml:space="preserve">Computer Programming-12, </v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!A26&amp;"-"&amp;F!E26&amp;", "</f>
-        <v xml:space="preserve">Research-11, </v>
+        <v xml:space="preserve">Research-12, </v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Research-11, </v>
+        <v xml:space="preserve">Research-12, </v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v xml:space="preserve">Vacc Suit-12, </v>
+        <v xml:space="preserve">Vacc Suit-13, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v xml:space="preserve">Vacc Suit-12, </v>
+        <v xml:space="preserve">Vacc Suit-13, </v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
-        <v xml:space="preserve">Carousing-12, </v>
+        <v xml:space="preserve">Carousing-13, </v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Carousing-12, </v>
+        <v xml:space="preserve">Carousing-13, </v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>F!A29&amp;"-"&amp;F!E29&amp;", "</f>
-        <v xml:space="preserve">Physics-10, </v>
+        <v xml:space="preserve">Physics-11, </v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Physics-10, </v>
+        <v xml:space="preserve">Physics-11, </v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
-        <v xml:space="preserve">Chemistry-11, </v>
+        <v xml:space="preserve">Chemistry-12, </v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Chemistry-11, </v>
+        <v xml:space="preserve">Chemistry-12, </v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>F!A31&amp;"-"&amp;F!E31&amp;", "</f>
-        <v xml:space="preserve">Farming/TL9-11, </v>
+        <v xml:space="preserve">Farming/TL9-12, </v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Farming/TL9-11, </v>
+        <v xml:space="preserve">Farming/TL9-12, </v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>F!A32&amp;"-"&amp;F!E32&amp;", "</f>
-        <v xml:space="preserve">Acting-10, </v>
+        <v xml:space="preserve">Acting-11, </v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Acting-10, </v>
+        <v xml:space="preserve">Acting-11, </v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>F!A33&amp;"-"&amp;F!E33&amp;", "</f>
-        <v xml:space="preserve">Politics-9, </v>
+        <v xml:space="preserve">Politics-10, </v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Politics-9, </v>
+        <v xml:space="preserve">Politics-10, </v>
       </c>
       <c r="E22" t="str">
         <f>IF(F!C5&lt;&gt;"","Somatic Aptitude "&amp;F!C5&amp;", ","")</f>
@@ -2148,31 +2167,31 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>F!A34&amp;"-"&amp;F!E34&amp;", "</f>
-        <v xml:space="preserve">Free Fall-12, </v>
+        <v xml:space="preserve">Free Fall-11, </v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Free Fall-12, </v>
+        <v xml:space="preserve">Free Fall-11, </v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>F!A35&amp;"-"&amp;F!E35&amp;", "</f>
-        <v xml:space="preserve">Climbing-16, </v>
+        <v xml:space="preserve">Climbing-9, </v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Climbing-16, </v>
+        <v xml:space="preserve">Climbing-9, </v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="e">
+      <c r="A25" t="str">
         <f>F!A36&amp;"-"&amp;F!E36&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Dancing-12, </v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Dancing-12, </v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">

--- a/haunting_mars/stats_madison.xlsx
+++ b/haunting_mars/stats_madison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA2078-45C9-B048-A104-517D41629FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E42EC43-8063-2547-8FD1-D08C09EB77E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8720" yWindow="500" windowWidth="24880" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>LINE 1:</t>
   </si>
   <si>
-    <t>Computer Programming</t>
-  </si>
-  <si>
     <t>Research</t>
   </si>
   <si>
@@ -184,19 +181,22 @@
     <t>Hydroponics engineer; born 2108, Durango, Hellas Plaintia, Mars</t>
   </si>
   <si>
-    <t>Splicer</t>
-  </si>
-  <si>
     <t>Dancing</t>
   </si>
   <si>
     <t>LINE 2:</t>
   </si>
   <si>
-    <t>white skin, 190 cm, 77 kg</t>
-  </si>
-  <si>
-    <t>Basic Biomods, Mesh Inserts, Cortical Stack, Attractive</t>
+    <t>Fabber Programming</t>
+  </si>
+  <si>
+    <t>bald, 158 cm, 54 kg</t>
+  </si>
+  <si>
+    <t>Ocon SFF Lo-Grav</t>
+  </si>
+  <si>
+    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -453,7 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -957,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,14 +971,14 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1002,10 +1001,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
         <v>50</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -1014,52 +1013,52 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
       <c r="E4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1083,7 +1082,7 @@
       </c>
       <c r="K5">
         <f>(D3+H3)/4+L5</f>
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1109,7 +1108,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="J7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1123,7 +1122,7 @@
     </row>
     <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1155,7 +1154,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1165,19 +1164,19 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E35" si="1">H12+C12+D12</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <f>INDEX($C$3:$H$3,(MATCH($B12,$2:$2,0)-2))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1187,16 +1186,16 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H29" si="2">INDEX($C$3:$H$3,(MATCH($B13,$2:$2,0)-2))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1206,16 +1205,16 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1225,16 +1224,16 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1244,16 +1243,16 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -1263,16 +1262,16 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1282,16 +1281,16 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1301,16 +1300,16 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1320,16 +1319,16 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <f>INDEX($C$3:$H$3,(MATCH($B20,$2:$2,0)-2))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1339,16 +1338,16 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
         <v>12</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -1358,16 +1357,16 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1377,16 +1376,16 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -1396,16 +1395,16 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -1415,16 +1414,16 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -1434,16 +1433,16 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -1453,16 +1452,16 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1472,16 +1471,16 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H28">
         <f>INDEX($C$3:$H$3,(MATCH($B28,$2:$2,0)-2))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -1491,16 +1490,16 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -1510,16 +1509,16 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H41" si="3">INDEX($C$3:$H$3,(MATCH($B30,$2:$2,0)-2))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1529,16 +1528,16 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -1548,16 +1547,16 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -1567,16 +1566,16 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -1586,16 +1585,16 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1605,16 +1604,16 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -1624,11 +1623,11 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" ref="E36:E41" si="4">H36+C36+D36</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1701,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1725,25 +1724,25 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>SPLICER: white skin, 190 cm, 77 kg</v>
+        <v>OCON SFF LO-GRAV: bald, 158 cm, 54 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 11 DX 13 IQ 11 WILL 12 PER 11 HT 13</v>
+        <v>ST 10 DX 12 IQ 10 WILL 11 PER 10 HT 11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>"Speed "&amp;F!K5</f>
-        <v>Speed 6,5</v>
+        <v>Speed 5,75</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>Basic Biomods, Mesh Inserts, Cortical Stack, Attractive</v>
+        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1767,31 +1766,31 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Mathematics (Applied)-10, Engineer: Hydroponics / TL 9-14, Electronics Repair: Life Support-14, Biology-10, Survival: Martian surface-11, Geology (Terraforming)-10, </v>
+        <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-10, Geology (Terraforming)-9, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Mechanics/TL 9-13, Electronics Operation: Life Support-12, Savoir-Faire: Working Class-11, Body Sense-12, Streetwise-9, Pilot: Flying Car-13, </v>
+        <v xml:space="preserve">Mechanics/TL 9-12, Electronics Operation: Life Support-11, Savoir-Faire: Working Class-10, Body Sense-11, Streetwise-8, Pilot: Flying Car-12, </v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Driving: Buggy-13, Computer Programming-12, Research-12, Vacc Suit-13, Carousing-13, Physics-11, </v>
+        <v xml:space="preserve">Driving: Buggy-12, Fabber Programming-11, Research-11, Vacc Suit-12, Carousing-11, Physics-10, </v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Chemistry-12, Farming/TL9-12, Acting-11, Politics-10, Free Fall-11, Climbing-9, </v>
+        <v xml:space="preserve">Chemistry-11, Farming/TL9-11, Acting-10, Politics-9, Free Fall-10, Climbing-8, </v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>SkillFormulas!G5</f>
-        <v xml:space="preserve">Dancing-12, </v>
+        <v xml:space="preserve">Dancing-11, </v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -1816,7 +1815,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1827,11 +1826,11 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>F!A12&amp;"-"&amp;F!E12&amp;", "</f>
-        <v xml:space="preserve">Mathematics (Applied)-10, </v>
+        <v xml:space="preserve">Mathematics (Applied)-9, </v>
       </c>
       <c r="B1" t="str">
         <f t="shared" ref="B1:B15" si="0">IF(ISNUMBER(SEARCH("-",A1)),A1,"")</f>
-        <v xml:space="preserve">Mathematics (Applied)-10, </v>
+        <v xml:space="preserve">Mathematics (Applied)-9, </v>
       </c>
       <c r="D1" t="str">
         <f>F!J12&amp;", "</f>
@@ -1843,17 +1842,17 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Mathematics (Applied)-10, Engineer: Hydroponics / TL 9-14, Electronics Repair: Life Support-14, Biology-10, Survival: Martian surface-11, Geology (Terraforming)-10, </v>
+        <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-10, Geology (Terraforming)-9, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!A13&amp;"-"&amp;F!E13&amp;", "</f>
-        <v xml:space="preserve">Engineer: Hydroponics / TL 9-14, </v>
+        <v xml:space="preserve">Engineer: Hydroponics / TL 9-13, </v>
       </c>
       <c r="B2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Engineer: Hydroponics / TL 9-14, </v>
+        <v xml:space="preserve">Engineer: Hydroponics / TL 9-13, </v>
       </c>
       <c r="D2" t="str">
         <f>F!J13&amp;", "</f>
@@ -1865,17 +1864,17 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Mechanics/TL 9-13, Electronics Operation: Life Support-12, Savoir-Faire: Working Class-11, Body Sense-12, Streetwise-9, Pilot: Flying Car-13, </v>
+        <v xml:space="preserve">Mechanics/TL 9-12, Electronics Operation: Life Support-11, Savoir-Faire: Working Class-10, Body Sense-11, Streetwise-8, Pilot: Flying Car-12, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Electronics Repair: Life Support-14, </v>
+        <v xml:space="preserve">Electronics Repair: Life Support-13, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Electronics Repair: Life Support-14, </v>
+        <v xml:space="preserve">Electronics Repair: Life Support-13, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1887,17 +1886,17 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Driving: Buggy-13, Computer Programming-12, Research-12, Vacc Suit-13, Carousing-13, Physics-11, </v>
+        <v xml:space="preserve">Driving: Buggy-12, Fabber Programming-11, Research-11, Vacc Suit-12, Carousing-11, Physics-10, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>F!A15&amp;"-"&amp;F!E15&amp;", "</f>
-        <v xml:space="preserve">Biology-10, </v>
+        <v xml:space="preserve">Biology-9, </v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Biology-10, </v>
+        <v xml:space="preserve">Biology-9, </v>
       </c>
       <c r="D4" t="str">
         <f>F!J15&amp;", "</f>
@@ -1909,17 +1908,17 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Chemistry-12, Farming/TL9-12, Acting-11, Politics-10, Free Fall-11, Climbing-9, </v>
+        <v xml:space="preserve">Chemistry-11, Farming/TL9-11, Acting-10, Politics-9, Free Fall-10, Climbing-8, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
-        <v xml:space="preserve">Survival: Martian surface-11, </v>
+        <v xml:space="preserve">Survival: Martian surface-10, </v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Survival: Martian surface-11, </v>
+        <v xml:space="preserve">Survival: Martian surface-10, </v>
       </c>
       <c r="D5" t="str">
         <f>F!J16&amp;", "</f>
@@ -1931,17 +1930,17 @@
       </c>
       <c r="G5" t="str">
         <f>B25&amp;B26&amp;B27&amp;B28&amp;B29&amp;B30</f>
-        <v xml:space="preserve">Dancing-12, </v>
+        <v xml:space="preserve">Dancing-11, </v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A17&amp;"-"&amp;F!E17&amp;", "</f>
-        <v xml:space="preserve">Geology (Terraforming)-10, </v>
+        <v xml:space="preserve">Geology (Terraforming)-9, </v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Geology (Terraforming)-10, </v>
+        <v xml:space="preserve">Geology (Terraforming)-9, </v>
       </c>
       <c r="D6" t="str">
         <f>F!J17&amp;", "</f>
@@ -1955,11 +1954,11 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>F!A18&amp;"-"&amp;F!E18&amp;", "</f>
-        <v xml:space="preserve">Mechanics/TL 9-13, </v>
+        <v xml:space="preserve">Mechanics/TL 9-12, </v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Mechanics/TL 9-13, </v>
+        <v xml:space="preserve">Mechanics/TL 9-12, </v>
       </c>
       <c r="D7" t="str">
         <f>F!J18&amp;", "</f>
@@ -1977,11 +1976,11 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A19&amp;"-"&amp;F!E19&amp;", "</f>
-        <v xml:space="preserve">Electronics Operation: Life Support-12, </v>
+        <v xml:space="preserve">Electronics Operation: Life Support-11, </v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Electronics Operation: Life Support-12, </v>
+        <v xml:space="preserve">Electronics Operation: Life Support-11, </v>
       </c>
       <c r="D8" t="str">
         <f>F!J19&amp;", "</f>
@@ -1995,11 +1994,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>F!A20&amp;"-"&amp;F!E20&amp;", "</f>
-        <v xml:space="preserve">Savoir-Faire: Working Class-11, </v>
+        <v xml:space="preserve">Savoir-Faire: Working Class-10, </v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Savoir-Faire: Working Class-11, </v>
+        <v xml:space="preserve">Savoir-Faire: Working Class-10, </v>
       </c>
       <c r="D9" t="str">
         <f>F!J20&amp;", "</f>
@@ -2013,131 +2012,131 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
-        <v xml:space="preserve">Body Sense-12, </v>
+        <v xml:space="preserve">Body Sense-11, </v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Body Sense-12, </v>
+        <v xml:space="preserve">Body Sense-11, </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>F!A22&amp;"-"&amp;F!E22&amp;", "</f>
-        <v xml:space="preserve">Streetwise-9, </v>
+        <v xml:space="preserve">Streetwise-8, </v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Streetwise-9, </v>
+        <v xml:space="preserve">Streetwise-8, </v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
-        <v xml:space="preserve">Pilot: Flying Car-13, </v>
+        <v xml:space="preserve">Pilot: Flying Car-12, </v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Pilot: Flying Car-13, </v>
+        <v xml:space="preserve">Pilot: Flying Car-12, </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
-        <v xml:space="preserve">Driving: Buggy-13, </v>
+        <v xml:space="preserve">Driving: Buggy-12, </v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Driving: Buggy-13, </v>
+        <v xml:space="preserve">Driving: Buggy-12, </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>F!A25&amp;"-"&amp;F!E25&amp;", "</f>
-        <v xml:space="preserve">Computer Programming-12, </v>
+        <v xml:space="preserve">Fabber Programming-11, </v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Computer Programming-12, </v>
+        <v xml:space="preserve">Fabber Programming-11, </v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!A26&amp;"-"&amp;F!E26&amp;", "</f>
-        <v xml:space="preserve">Research-12, </v>
+        <v xml:space="preserve">Research-11, </v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Research-12, </v>
+        <v xml:space="preserve">Research-11, </v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v xml:space="preserve">Vacc Suit-13, </v>
+        <v xml:space="preserve">Vacc Suit-12, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v xml:space="preserve">Vacc Suit-13, </v>
+        <v xml:space="preserve">Vacc Suit-12, </v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
-        <v xml:space="preserve">Carousing-13, </v>
+        <v xml:space="preserve">Carousing-11, </v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Carousing-13, </v>
+        <v xml:space="preserve">Carousing-11, </v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>F!A29&amp;"-"&amp;F!E29&amp;", "</f>
-        <v xml:space="preserve">Physics-11, </v>
+        <v xml:space="preserve">Physics-10, </v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Physics-11, </v>
+        <v xml:space="preserve">Physics-10, </v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
-        <v xml:space="preserve">Chemistry-12, </v>
+        <v xml:space="preserve">Chemistry-11, </v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Chemistry-12, </v>
+        <v xml:space="preserve">Chemistry-11, </v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>F!A31&amp;"-"&amp;F!E31&amp;", "</f>
-        <v xml:space="preserve">Farming/TL9-12, </v>
+        <v xml:space="preserve">Farming/TL9-11, </v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Farming/TL9-12, </v>
+        <v xml:space="preserve">Farming/TL9-11, </v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>F!A32&amp;"-"&amp;F!E32&amp;", "</f>
-        <v xml:space="preserve">Acting-11, </v>
+        <v xml:space="preserve">Acting-10, </v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Acting-11, </v>
+        <v xml:space="preserve">Acting-10, </v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>F!A33&amp;"-"&amp;F!E33&amp;", "</f>
-        <v xml:space="preserve">Politics-10, </v>
+        <v xml:space="preserve">Politics-9, </v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Politics-10, </v>
+        <v xml:space="preserve">Politics-9, </v>
       </c>
       <c r="E22" t="str">
         <f>IF(F!C5&lt;&gt;"","Somatic Aptitude "&amp;F!C5&amp;", ","")</f>
@@ -2167,31 +2166,31 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>F!A34&amp;"-"&amp;F!E34&amp;", "</f>
-        <v xml:space="preserve">Free Fall-11, </v>
+        <v xml:space="preserve">Free Fall-10, </v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Free Fall-11, </v>
+        <v xml:space="preserve">Free Fall-10, </v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>F!A35&amp;"-"&amp;F!E35&amp;", "</f>
-        <v xml:space="preserve">Climbing-9, </v>
+        <v xml:space="preserve">Climbing-8, </v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Climbing-9, </v>
+        <v xml:space="preserve">Climbing-8, </v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>F!A36&amp;"-"&amp;F!E36&amp;", "</f>
-        <v xml:space="preserve">Dancing-12, </v>
+        <v xml:space="preserve">Dancing-11, </v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Dancing-12, </v>
+        <v xml:space="preserve">Dancing-11, </v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">

--- a/haunting_mars/stats_madison.xlsx
+++ b/haunting_mars/stats_madison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E42EC43-8063-2547-8FD1-D08C09EB77E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B78D9-5CAF-864E-B62C-56EAC81792B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8720" yWindow="500" windowWidth="24880" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,7 +957,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1243,11 +1243,11 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1730,7 +1730,7 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 10 DX 12 IQ 10 WILL 11 PER 10 HT 11</v>
+        <v>ST 10 DX 12 IQ 10 WILL 11 PER 9 HT 11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1766,7 +1766,7 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-10, Geology (Terraforming)-9, </v>
+        <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-9, Geology (Terraforming)-9, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-10, Geology (Terraforming)-9, </v>
+        <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-9, Geology (Terraforming)-9, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1914,11 +1914,11 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
-        <v xml:space="preserve">Survival: Martian surface-10, </v>
+        <v xml:space="preserve">Survival: Martian surface-9, </v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Survival: Martian surface-10, </v>
+        <v xml:space="preserve">Survival: Martian surface-9, </v>
       </c>
       <c r="D5" t="str">
         <f>F!J16&amp;", "</f>

--- a/haunting_mars/stats_madison.xlsx
+++ b/haunting_mars/stats_madison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B78D9-5CAF-864E-B62C-56EAC81792B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D11D95-D2CD-B04B-8AF7-6D6CB5C210C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="500" windowWidth="24880" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8720" yWindow="500" windowWidth="24880" windowHeight="18680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="1" r:id="rId1"/>
@@ -190,13 +190,13 @@
     <t>Fabber Programming</t>
   </si>
   <si>
-    <t>bald, 158 cm, 54 kg</t>
-  </si>
-  <si>
     <t>Ocon SFF Lo-Grav</t>
   </si>
   <si>
     <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</t>
+  </si>
+  <si>
+    <t>grey, 155 cm, 52 kg</t>
   </si>
 </sst>
 </file>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,7 +1004,7 @@
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1701,7 +1701,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1724,7 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>OCON SFF LO-GRAV: bald, 158 cm, 54 kg</v>
+        <v>OCON SFF LO-GRAV: grey, 155 cm, 52 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1748,7 +1748,7 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>SkillFormulas!E22&amp;SkillFormulas!F22&amp;SkillFormulas!G22&amp;SkillFormulas!H22&amp;SkillFormulas!I22&amp;SkillFormulas!J22</f>
-        <v>Coordination Aptitude 1, Willpower Aptitude 1, Endurance Aptitude 1</v>
+        <v xml:space="preserve">Coordination Aptitude +1, Willpower Aptitude +1, Endurance Aptitude +1, </v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1815,7 +1815,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2139,28 +2139,28 @@
         <v xml:space="preserve">Politics-9, </v>
       </c>
       <c r="E22" t="str">
-        <f>IF(F!C5&lt;&gt;"","Somatic Aptitude "&amp;F!C5&amp;", ","")</f>
+        <f>IF(F!C5&lt;0,"Somatic Aptitude "&amp;F!C5&amp;", ",IF(F!C5&gt;0,"Somatic Aptitude +"&amp;F!C5&amp;", ",""))</f>
         <v/>
       </c>
       <c r="F22" t="str">
-        <f>IF(F!D5&lt;&gt;"","Coordination Aptitude "&amp;F!D5&amp;", ","")</f>
-        <v xml:space="preserve">Coordination Aptitude 1, </v>
+        <f>IF(F!D5&lt;0,"Coordination Aptitude "&amp;F!D5&amp;", ",IF(F!D5&gt;0,"Coordination Aptitude +"&amp;F!D5&amp;", ",""))</f>
+        <v xml:space="preserve">Coordination Aptitude +1, </v>
       </c>
       <c r="G22" t="str">
-        <f>IF(F!E5&lt;&gt;"","Intelligence Aptitude "&amp;F!E5&amp;", ","")</f>
+        <f>IF(F!E5&lt;0,"Intelligence Aptitude "&amp;F!E5&amp;", ",IF(F!E5&gt;0,"Intelligence Aptitude +"&amp;F!E5&amp;", ",""))</f>
         <v/>
       </c>
       <c r="H22" t="str">
-        <f>IF(F!F5&lt;&gt;"","Willpower Aptitude "&amp;F!F5&amp;", ","")</f>
-        <v xml:space="preserve">Willpower Aptitude 1, </v>
+        <f>IF(F!F5&lt;0,"Willpower Aptitude "&amp;F!F5&amp;", ",IF(F!F5&gt;0,"Willpower Aptitude +"&amp;F!F5&amp;", ",""))</f>
+        <v xml:space="preserve">Willpower Aptitude +1, </v>
       </c>
       <c r="I22" t="str">
-        <f>IF(F!G5&lt;&gt;"","Alertness "&amp;F!G5&amp;", ","")</f>
+        <f>IF(F!G5&lt;0,"Alertness "&amp;F!G5&amp;", ",IF(F!G5&gt;0,"Alertness +"&amp;F!G5&amp;", ",""))</f>
         <v/>
       </c>
       <c r="J22" t="str">
-        <f>IF(F!H5&lt;&gt;"","Endurance Aptitude "&amp;F!H5,"")</f>
-        <v>Endurance Aptitude 1</v>
+        <f>IF(F!H5&lt;0,"Endurance Aptitude "&amp;F!H5&amp;", ",IF(F!H5&gt;0,"Endurance Aptitude +"&amp;F!H5&amp;", ",""))</f>
+        <v xml:space="preserve">Endurance Aptitude +1, </v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">

--- a/haunting_mars/stats_madison.xlsx
+++ b/haunting_mars/stats_madison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D11D95-D2CD-B04B-8AF7-6D6CB5C210C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0251163-FD51-A340-9225-D76004D2126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="500" windowWidth="24880" windowHeight="18680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8720" yWindow="500" windowWidth="24880" windowHeight="18680" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>ST</t>
   </si>
@@ -190,20 +190,23 @@
     <t>Fabber Programming</t>
   </si>
   <si>
-    <t>Ocon SFF Lo-Grav</t>
-  </si>
-  <si>
-    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</t>
-  </si>
-  <si>
-    <t>grey, 155 cm, 52 kg</t>
+    <t>Guns (pistol)</t>
+  </si>
+  <si>
+    <t>Pod</t>
+  </si>
+  <si>
+    <t>Mesh Inserts, Cyberbrain, Cortical Stack, Mnemonic Augmentation, Access Jacks, Social Stigma: Pod</t>
+  </si>
+  <si>
+    <t>185 cm, 75 kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,6 +257,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -441,7 +458,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,10 +466,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -956,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,7 +1022,7 @@
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -1017,7 +1035,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
@@ -1033,20 +1051,20 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1058,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1098,22 +1116,22 @@
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1121,16 +1139,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1338,11 +1356,11 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
         <v>11</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1376,11 +1394,11 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1395,11 +1413,11 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1452,11 +1470,11 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1471,11 +1489,11 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <f>INDEX($C$3:$H$3,(MATCH($B28,$2:$2,0)-2))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1585,11 +1603,11 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1604,11 +1622,11 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1623,21 +1641,30 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" ref="E36:E41" si="4">H36+C36+D36</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E37" s="1" t="e">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="1">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H37" t="e">
+        <v>10</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1698,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1709,95 +1736,125 @@
     <col min="1" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="str">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="str">
         <f>F!A1</f>
         <v>Madison Bell</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="str">
         <f>F!J1</f>
         <v>Hydroponics engineer; born 2108, Durango, Hellas Plaintia, Mars</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>OCON SFF LO-GRAV: grey, 155 cm, 52 kg</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
+        <v>POD: 185 cm, 75 kg</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 10 DX 12 IQ 10 WILL 11 PER 9 HT 11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
+        <v>ST 10 DX 11 IQ 10 WILL 11 PER 9 HT 12</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="str">
         <f>"Speed "&amp;F!K5</f>
         <v>Speed 5,75</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="str">
         <f>F!A7</f>
-        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
+        <v>Mesh Inserts, Cyberbrain, Cortical Stack, Mnemonic Augmentation, Access Jacks, Social Stigma: Pod</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="str">
         <f>SkillFormulas!E22&amp;SkillFormulas!F22&amp;SkillFormulas!G22&amp;SkillFormulas!H22&amp;SkillFormulas!I22&amp;SkillFormulas!J22</f>
         <v xml:space="preserve">Coordination Aptitude +1, Willpower Aptitude +1, Endurance Aptitude +1, </v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="str">
         <f>F!A9</f>
         <v>Engineering Talent +2, Adaptability +2, Secret (Infiltrator), Sense of duty: Sister, Status -2 (bodiless)</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="str">
         <f>SkillFormulas!G7</f>
         <v xml:space="preserve">English (N/N), </v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="str">
         <f>SkillFormulas!$G$1</f>
         <v xml:space="preserve">Mathematics (Applied)-9, Engineer: Hydroponics / TL 9-13, Electronics Repair: Life Support-13, Biology-9, Survival: Martian surface-9, Geology (Terraforming)-9, </v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Mechanics/TL 9-12, Electronics Operation: Life Support-11, Savoir-Faire: Working Class-10, Body Sense-11, Streetwise-8, Pilot: Flying Car-12, </v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
+        <v xml:space="preserve">Mechanics/TL 9-12, Electronics Operation: Life Support-11, Savoir-Faire: Working Class-10, Body Sense-10, Streetwise-8, Pilot: Flying Car-11, </v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Driving: Buggy-12, Fabber Programming-11, Research-11, Vacc Suit-12, Carousing-11, Physics-10, </v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
+        <v xml:space="preserve">Driving: Buggy-11, Fabber Programming-11, Research-11, Vacc Suit-11, Carousing-12, Physics-10, </v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Chemistry-11, Farming/TL9-11, Acting-10, Politics-9, Free Fall-10, Climbing-8, </v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
+        <v xml:space="preserve">Chemistry-11, Farming/TL9-11, Acting-10, Politics-9, Free Fall-9, Climbing-7, </v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="str">
         <f>SkillFormulas!G5</f>
-        <v xml:space="preserve">Dancing-11, </v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
+        <v xml:space="preserve">Dancing-10, Guns (pistol)-10, </v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="str">
         <f>F!J7</f>
         <v>Inexperienced criminal / resistance operative</v>
       </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1864,7 +1921,7 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Mechanics/TL 9-12, Electronics Operation: Life Support-11, Savoir-Faire: Working Class-10, Body Sense-11, Streetwise-8, Pilot: Flying Car-12, </v>
+        <v xml:space="preserve">Mechanics/TL 9-12, Electronics Operation: Life Support-11, Savoir-Faire: Working Class-10, Body Sense-10, Streetwise-8, Pilot: Flying Car-11, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1886,7 +1943,7 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Driving: Buggy-12, Fabber Programming-11, Research-11, Vacc Suit-12, Carousing-11, Physics-10, </v>
+        <v xml:space="preserve">Driving: Buggy-11, Fabber Programming-11, Research-11, Vacc Suit-11, Carousing-12, Physics-10, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1908,7 +1965,7 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Chemistry-11, Farming/TL9-11, Acting-10, Politics-9, Free Fall-10, Climbing-8, </v>
+        <v xml:space="preserve">Chemistry-11, Farming/TL9-11, Acting-10, Politics-9, Free Fall-9, Climbing-7, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1930,7 +1987,7 @@
       </c>
       <c r="G5" t="str">
         <f>B25&amp;B26&amp;B27&amp;B28&amp;B29&amp;B30</f>
-        <v xml:space="preserve">Dancing-11, </v>
+        <v xml:space="preserve">Dancing-10, Guns (pistol)-10, </v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2012,11 +2069,11 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
-        <v xml:space="preserve">Body Sense-11, </v>
+        <v xml:space="preserve">Body Sense-10, </v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Body Sense-11, </v>
+        <v xml:space="preserve">Body Sense-10, </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2032,21 +2089,21 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
-        <v xml:space="preserve">Pilot: Flying Car-12, </v>
+        <v xml:space="preserve">Pilot: Flying Car-11, </v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Pilot: Flying Car-12, </v>
+        <v xml:space="preserve">Pilot: Flying Car-11, </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
-        <v xml:space="preserve">Driving: Buggy-12, </v>
+        <v xml:space="preserve">Driving: Buggy-11, </v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Driving: Buggy-12, </v>
+        <v xml:space="preserve">Driving: Buggy-11, </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2072,21 +2129,21 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v xml:space="preserve">Vacc Suit-12, </v>
+        <v xml:space="preserve">Vacc Suit-11, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v xml:space="preserve">Vacc Suit-12, </v>
+        <v xml:space="preserve">Vacc Suit-11, </v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
-        <v xml:space="preserve">Carousing-11, </v>
+        <v xml:space="preserve">Carousing-12, </v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Carousing-11, </v>
+        <v xml:space="preserve">Carousing-12, </v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2166,41 +2223,41 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>F!A34&amp;"-"&amp;F!E34&amp;", "</f>
-        <v xml:space="preserve">Free Fall-10, </v>
+        <v xml:space="preserve">Free Fall-9, </v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Free Fall-10, </v>
+        <v xml:space="preserve">Free Fall-9, </v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>F!A35&amp;"-"&amp;F!E35&amp;", "</f>
-        <v xml:space="preserve">Climbing-8, </v>
+        <v xml:space="preserve">Climbing-7, </v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Climbing-8, </v>
+        <v xml:space="preserve">Climbing-7, </v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>F!A36&amp;"-"&amp;F!E36&amp;", "</f>
-        <v xml:space="preserve">Dancing-11, </v>
+        <v xml:space="preserve">Dancing-10, </v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Dancing-11, </v>
+        <v xml:space="preserve">Dancing-10, </v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="e">
+      <c r="A26" t="str">
         <f>F!A37&amp;"-"&amp;F!E37&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Guns (pistol)-10, </v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Guns (pistol)-10, </v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
